--- a/pred_ohlcv/54_21/2019-10-26 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ADA ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>1148744.04250908</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>488933.5900090801</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>107132.6325090801</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>214114.9368090801</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>202210.5357090801</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>202210.5357090801</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>56520.31600908015</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>304162.1606090802</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>304162.1606090802</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>308962.1606090802</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>308356.1877090802</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>299304.0659090801</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>276517.0236090801</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>246957.4731090801</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>255672.0940090801</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>435770.9909090801</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>445214.0763090801</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>445214.0763090801</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>475047.2159090801</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>312372.4894090801</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>312372.4894090801</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-708977.5531909199</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-708977.5531909199</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-705257.97669092</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-693844.0132909199</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>433033.9217618301</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-311684.1569381699</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-436621.3522381699</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-517994.4145381699</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-517994.4145381699</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-523657.6660381699</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-480513.4670381699</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-479513.4670381699</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-480469.8622381699</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-480139.3631381699</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-480139.3631381699</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-479506.2752381699</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-473506.2752381699</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-459364.3752381699</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-449240.0067381699</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-488912.4593381699</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-523741.7466566199</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-604160.7281566199</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-604160.7281566199</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-598542.06689902</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-619922.73899902</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-562099.2873990199</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-562099.2873990199</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-551821.0720990199</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-623284.2599990199</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-623284.2599990199</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-538359.8213990199</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-538359.8213990199</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-536266.6940990199</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-387875.3907990198</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-426836.5961990198</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-619826.9800990198</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-619826.9800990198</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-616140.8521990199</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-616140.8521990199</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-614278.0284990199</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-614278.0284990199</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-820164.00139902</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-816972.74149902</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-816972.74149902</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-798526.3589990201</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-836208.9144990201</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-836208.9144990201</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-927811.8360990201</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1005364.50019902</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-964784.2129990201</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-809868.0145990201</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-843364.1935990201</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1060361.64899902</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1317869.12749902</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1451940.67229902</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1526096.15899902</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1563518.473499021</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1342709.962944701</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1368385.539044701</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1381546.9712447</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1381546.9712447</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3543018.261848932</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3541877.920448932</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3541877.920448932</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-3710907.033622372</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3668311.129877692</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3668311.129877692</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3677416.768877692</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3676212.211277692</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3675670.972477692</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3675670.972477692</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3709091.571577691</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3709091.571577691</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3690760.182215991</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3691300.217615991</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3689443.706415991</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3687666.721515991</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3687666.721515991</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3688751.450315991</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3687751.450315991</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3688432.862415991</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3669427.544215991</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-3668770.008515991</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-3709594.857215991</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-3709594.857215991</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-3709094.857215991</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-3709094.857215991</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-3710399.792015991</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3710118.320815991</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-3638468.320815991</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3638468.320815991</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3638468.320815991</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-3639512.771115991</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-3704889.985115991</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3704889.985115991</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3705678.285115991</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3677929.615115991</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-3684998.416615991</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3684465.437015991</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3683842.609815991</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
